--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>973.6638371859156</v>
+        <v>1130.144526866223</v>
       </c>
       <c r="AB2" t="n">
-        <v>1332.209817054654</v>
+        <v>1546.313600116059</v>
       </c>
       <c r="AC2" t="n">
-        <v>1205.065581883179</v>
+        <v>1398.73560038575</v>
       </c>
       <c r="AD2" t="n">
-        <v>973663.8371859156</v>
+        <v>1130144.526866223</v>
       </c>
       <c r="AE2" t="n">
-        <v>1332209.817054654</v>
+        <v>1546313.600116059</v>
       </c>
       <c r="AF2" t="n">
         <v>5.166605259406371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.37916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1205065.581883179</v>
+        <v>1398735.60038575</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.445897402502</v>
+        <v>467.6867477575843</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.8570579665136</v>
+        <v>639.909641165043</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.0019282237667</v>
+        <v>578.8375631310727</v>
       </c>
       <c r="AD3" t="n">
-        <v>389445.897402502</v>
+        <v>467686.7477575843</v>
       </c>
       <c r="AE3" t="n">
-        <v>532857.0579665136</v>
+        <v>639909.641165043</v>
       </c>
       <c r="AF3" t="n">
         <v>9.527482270790708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>482001.9282237667</v>
+        <v>578837.5631310727</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.5322509577182</v>
+        <v>380.7720902829434</v>
       </c>
       <c r="AB4" t="n">
-        <v>413.9379725412949</v>
+        <v>520.9891724041703</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.4323134075461</v>
+        <v>471.2666970028114</v>
       </c>
       <c r="AD4" t="n">
-        <v>302532.2509577182</v>
+        <v>380772.0902829434</v>
       </c>
       <c r="AE4" t="n">
-        <v>413937.9725412949</v>
+        <v>520989.1724041703</v>
       </c>
       <c r="AF4" t="n">
         <v>1.127077835861024e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.925</v>
       </c>
       <c r="AH4" t="n">
-        <v>374432.3134075461</v>
+        <v>471266.6970028114</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>291.6934012742677</v>
+        <v>360.1115649402209</v>
       </c>
       <c r="AB5" t="n">
-        <v>399.1077802280979</v>
+        <v>492.7205301522082</v>
       </c>
       <c r="AC5" t="n">
-        <v>361.0174938344151</v>
+        <v>445.695974292088</v>
       </c>
       <c r="AD5" t="n">
-        <v>291693.4012742677</v>
+        <v>360111.564940221</v>
       </c>
       <c r="AE5" t="n">
-        <v>399107.7802280979</v>
+        <v>492720.5301522082</v>
       </c>
       <c r="AF5" t="n">
         <v>1.176574185459011e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.34166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>361017.4938344151</v>
+        <v>445695.974292088</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>269.2258122481404</v>
+        <v>337.711295721798</v>
       </c>
       <c r="AB6" t="n">
-        <v>368.366633722478</v>
+        <v>462.0714935774299</v>
       </c>
       <c r="AC6" t="n">
-        <v>333.2102392058214</v>
+        <v>417.9720387518134</v>
       </c>
       <c r="AD6" t="n">
-        <v>269225.8122481404</v>
+        <v>337711.295721798</v>
       </c>
       <c r="AE6" t="n">
-        <v>368366.633722478</v>
+        <v>462071.4935774299</v>
       </c>
       <c r="AF6" t="n">
         <v>1.231494792547189e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.74583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>333210.2392058214</v>
+        <v>417972.0387518135</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>264.8502356642057</v>
+        <v>323.6155287050767</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.3797768035237</v>
+        <v>442.7850432837997</v>
       </c>
       <c r="AC7" t="n">
-        <v>327.7947595086056</v>
+        <v>400.5262602055043</v>
       </c>
       <c r="AD7" t="n">
-        <v>264850.2356642057</v>
+        <v>323615.5287050767</v>
       </c>
       <c r="AE7" t="n">
-        <v>362379.7768035237</v>
+        <v>442785.0432837997</v>
       </c>
       <c r="AF7" t="n">
         <v>1.252061768864161e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5375</v>
       </c>
       <c r="AH7" t="n">
-        <v>327794.7595086056</v>
+        <v>400526.2602055044</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>257.3316100277638</v>
+        <v>315.9954178421526</v>
       </c>
       <c r="AB8" t="n">
-        <v>352.0924615092243</v>
+        <v>432.3588714255819</v>
       </c>
       <c r="AC8" t="n">
-        <v>318.4892511477624</v>
+        <v>391.0951475562108</v>
       </c>
       <c r="AD8" t="n">
-        <v>257331.6100277638</v>
+        <v>315995.4178421526</v>
       </c>
       <c r="AE8" t="n">
-        <v>352092.4615092243</v>
+        <v>432358.8714255819</v>
       </c>
       <c r="AF8" t="n">
         <v>1.285812704358679e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.20833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>318489.2511477624</v>
+        <v>391095.1475562108</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>242.127811702961</v>
+        <v>310.5791297578408</v>
       </c>
       <c r="AB9" t="n">
-        <v>331.2899538969962</v>
+        <v>424.9480671188604</v>
       </c>
       <c r="AC9" t="n">
-        <v>299.672105665536</v>
+        <v>384.3916200113937</v>
       </c>
       <c r="AD9" t="n">
-        <v>242127.811702961</v>
+        <v>310579.1297578408</v>
       </c>
       <c r="AE9" t="n">
-        <v>331289.9538969962</v>
+        <v>424948.0671188604</v>
       </c>
       <c r="AF9" t="n">
         <v>1.308639787963231e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.99166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>299672.105665536</v>
+        <v>384391.6200113937</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>239.4573238824219</v>
+        <v>307.9086419373016</v>
       </c>
       <c r="AB10" t="n">
-        <v>327.6360746473286</v>
+        <v>421.2941878691909</v>
       </c>
       <c r="AC10" t="n">
-        <v>296.3669475232038</v>
+        <v>381.0864618690609</v>
       </c>
       <c r="AD10" t="n">
-        <v>239457.3238824219</v>
+        <v>307908.6419373016</v>
       </c>
       <c r="AE10" t="n">
-        <v>327636.0746473286</v>
+        <v>421294.1878691909</v>
       </c>
       <c r="AF10" t="n">
         <v>1.320693693496987e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>296366.9475232038</v>
+        <v>381086.4618690609</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.1469714109084</v>
+        <v>293.8780990330014</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.7384602364766</v>
+        <v>402.0969800836601</v>
       </c>
       <c r="AC11" t="n">
-        <v>291.0321931543679</v>
+        <v>363.7214086511308</v>
       </c>
       <c r="AD11" t="n">
-        <v>235146.9714109084</v>
+        <v>293878.0990330015</v>
       </c>
       <c r="AE11" t="n">
-        <v>321738.4602364766</v>
+        <v>402096.9800836601</v>
       </c>
       <c r="AF11" t="n">
         <v>1.339678594712654e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.71666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>291032.1931543679</v>
+        <v>363721.4086511309</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>234.2659328207822</v>
+        <v>292.9970604428752</v>
       </c>
       <c r="AB12" t="n">
-        <v>320.5329843687871</v>
+        <v>400.89150421597</v>
       </c>
       <c r="AC12" t="n">
-        <v>289.9417662115942</v>
+        <v>362.630981708357</v>
       </c>
       <c r="AD12" t="n">
-        <v>234265.9328207822</v>
+        <v>292997.0604428752</v>
       </c>
       <c r="AE12" t="n">
-        <v>320532.9843687871</v>
+        <v>400891.5042159701</v>
       </c>
       <c r="AF12" t="n">
         <v>1.338812220252415e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.725</v>
       </c>
       <c r="AH12" t="n">
-        <v>289941.7662115942</v>
+        <v>362630.981708357</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>228.8431694175451</v>
+        <v>287.5742970396379</v>
       </c>
       <c r="AB13" t="n">
-        <v>313.1133202450447</v>
+        <v>393.4718400922238</v>
       </c>
       <c r="AC13" t="n">
-        <v>283.2302244182555</v>
+        <v>355.9194399150172</v>
       </c>
       <c r="AD13" t="n">
-        <v>228843.1694175451</v>
+        <v>287574.2970396379</v>
       </c>
       <c r="AE13" t="n">
-        <v>313113.3202450448</v>
+        <v>393471.8400922238</v>
       </c>
       <c r="AF13" t="n">
         <v>1.361413293128208e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.52916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>283230.2244182555</v>
+        <v>355919.4399150172</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>229.0218414272643</v>
+        <v>287.7529690493572</v>
       </c>
       <c r="AB14" t="n">
-        <v>313.3577871711954</v>
+        <v>393.7163070183746</v>
       </c>
       <c r="AC14" t="n">
-        <v>283.4513597640858</v>
+        <v>356.1405752608476</v>
       </c>
       <c r="AD14" t="n">
-        <v>229021.8414272643</v>
+        <v>287752.9690493572</v>
       </c>
       <c r="AE14" t="n">
-        <v>313357.7871711954</v>
+        <v>393716.3070183746</v>
       </c>
       <c r="AF14" t="n">
         <v>1.356667067824292e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.57083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>283451.3597640858</v>
+        <v>356140.5752608476</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>226.3825925046924</v>
+        <v>285.1137201267853</v>
       </c>
       <c r="AB15" t="n">
-        <v>309.7466503598895</v>
+        <v>390.1051702070668</v>
       </c>
       <c r="AC15" t="n">
-        <v>280.1848647817874</v>
+        <v>352.8740802785487</v>
       </c>
       <c r="AD15" t="n">
-        <v>226382.5925046924</v>
+        <v>285113.7201267853</v>
       </c>
       <c r="AE15" t="n">
-        <v>309746.6503598895</v>
+        <v>390105.1702070668</v>
       </c>
       <c r="AF15" t="n">
         <v>1.362769357500756e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>280184.8647817874</v>
+        <v>352874.0802785486</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>224.5235702684235</v>
+        <v>283.1532126640312</v>
       </c>
       <c r="AB16" t="n">
-        <v>307.2030541219548</v>
+        <v>387.4227174050416</v>
       </c>
       <c r="AC16" t="n">
-        <v>277.8840257988408</v>
+        <v>350.4476370071026</v>
       </c>
       <c r="AD16" t="n">
-        <v>224523.5702684235</v>
+        <v>283153.2126640312</v>
       </c>
       <c r="AE16" t="n">
-        <v>307203.0541219548</v>
+        <v>387422.7174050416</v>
       </c>
       <c r="AF16" t="n">
         <v>1.369286000179943e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.4625</v>
       </c>
       <c r="AH16" t="n">
-        <v>277884.0257988408</v>
+        <v>350447.6370071026</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>223.6078501802263</v>
+        <v>282.2374925758339</v>
       </c>
       <c r="AB17" t="n">
-        <v>305.9501254985649</v>
+        <v>386.1697887816511</v>
       </c>
       <c r="AC17" t="n">
-        <v>276.7506749247704</v>
+        <v>349.3142861330321</v>
       </c>
       <c r="AD17" t="n">
-        <v>223607.8501802263</v>
+        <v>282237.4925758339</v>
       </c>
       <c r="AE17" t="n">
-        <v>305950.1254985649</v>
+        <v>386169.7887816511</v>
       </c>
       <c r="AF17" t="n">
         <v>1.369926363911424e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>276750.6749247704</v>
+        <v>349314.2861330321</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>223.5701173015209</v>
+        <v>282.1997596971286</v>
       </c>
       <c r="AB18" t="n">
-        <v>305.8984977092631</v>
+        <v>386.1181609923491</v>
       </c>
       <c r="AC18" t="n">
-        <v>276.7039744192195</v>
+        <v>349.2675856274811</v>
       </c>
       <c r="AD18" t="n">
-        <v>223570.1173015209</v>
+        <v>282199.7596971286</v>
       </c>
       <c r="AE18" t="n">
-        <v>305898.4977092631</v>
+        <v>386118.1609923491</v>
       </c>
       <c r="AF18" t="n">
         <v>1.372412481927761e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.4375</v>
       </c>
       <c r="AH18" t="n">
-        <v>276703.9744192195</v>
+        <v>349267.5856274811</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.1303058548989</v>
+        <v>757.9091139687428</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.9085720915581</v>
+        <v>1037.004686322307</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.3629118779442</v>
+        <v>938.0344145049233</v>
       </c>
       <c r="AD2" t="n">
-        <v>632130.3058548989</v>
+        <v>757909.1139687428</v>
       </c>
       <c r="AE2" t="n">
-        <v>864908.5720915581</v>
+        <v>1037004.686322307</v>
       </c>
       <c r="AF2" t="n">
         <v>7.175332482064051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>782362.9118779441</v>
+        <v>938034.4145049234</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.3911294068939</v>
+        <v>396.1218190687271</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.3192308486596</v>
+        <v>541.9913485111205</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.4368340799639</v>
+        <v>490.2644548988536</v>
       </c>
       <c r="AD3" t="n">
-        <v>328391.1294068939</v>
+        <v>396121.8190687271</v>
       </c>
       <c r="AE3" t="n">
-        <v>449319.2308486596</v>
+        <v>541991.3485111204</v>
       </c>
       <c r="AF3" t="n">
         <v>1.139216438648115e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>406436.834079964</v>
+        <v>490264.4548988536</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.979764622362</v>
+        <v>352.7436086731188</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.921886376215</v>
+        <v>482.6393673362696</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.708288799273</v>
+        <v>436.5769435063017</v>
       </c>
       <c r="AD4" t="n">
-        <v>284979.764622362</v>
+        <v>352743.6086731189</v>
       </c>
       <c r="AE4" t="n">
-        <v>389921.886376215</v>
+        <v>482639.3673362696</v>
       </c>
       <c r="AF4" t="n">
         <v>1.243081323792589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.81666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>352708.288799273</v>
+        <v>436576.9435063017</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.8514034171878</v>
+        <v>319.5810820491668</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.5942010549854</v>
+        <v>437.2649353819592</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.7066141473991</v>
+        <v>395.5329836542954</v>
       </c>
       <c r="AD5" t="n">
-        <v>251851.4034171877</v>
+        <v>319581.0820491668</v>
       </c>
       <c r="AE5" t="n">
-        <v>344594.2010549854</v>
+        <v>437264.9353819591</v>
       </c>
       <c r="AF5" t="n">
         <v>1.356219859396391e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>311706.6141473991</v>
+        <v>395532.9836542954</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.1391073943701</v>
+        <v>304.1550824873174</v>
       </c>
       <c r="AB6" t="n">
-        <v>336.7783856278556</v>
+        <v>416.1584022343667</v>
       </c>
       <c r="AC6" t="n">
-        <v>304.6367291750663</v>
+        <v>376.4408284071038</v>
       </c>
       <c r="AD6" t="n">
-        <v>246139.1073943701</v>
+        <v>304155.0824873174</v>
       </c>
       <c r="AE6" t="n">
-        <v>336778.3856278556</v>
+        <v>416158.4022343667</v>
       </c>
       <c r="AF6" t="n">
         <v>1.387585406061051e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>304636.7291750662</v>
+        <v>376440.8284071038</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.4150130714751</v>
+        <v>296.4309881644223</v>
       </c>
       <c r="AB7" t="n">
-        <v>326.2099390122843</v>
+        <v>405.58995561879</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.0769202715737</v>
+        <v>366.8810195036099</v>
       </c>
       <c r="AD7" t="n">
-        <v>238415.0130714751</v>
+        <v>296430.9881644223</v>
       </c>
       <c r="AE7" t="n">
-        <v>326209.9390122843</v>
+        <v>405589.95561879</v>
       </c>
       <c r="AF7" t="n">
         <v>1.427977305839457e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.025</v>
       </c>
       <c r="AH7" t="n">
-        <v>295076.9202715737</v>
+        <v>366881.0195036099</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>225.1084393653589</v>
+        <v>292.8039525785568</v>
       </c>
       <c r="AB8" t="n">
-        <v>308.0032978229847</v>
+        <v>400.6272855166919</v>
       </c>
       <c r="AC8" t="n">
-        <v>278.6078953641938</v>
+        <v>362.3919796709048</v>
       </c>
       <c r="AD8" t="n">
-        <v>225108.4393653588</v>
+        <v>292803.9525785568</v>
       </c>
       <c r="AE8" t="n">
-        <v>308003.2978229848</v>
+        <v>400627.2855166919</v>
       </c>
       <c r="AF8" t="n">
         <v>1.444092849526556e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.89166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>278607.8953641938</v>
+        <v>362391.9796709048</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>219.434724978814</v>
+        <v>277.5180198794653</v>
       </c>
       <c r="AB9" t="n">
-        <v>300.2402714927049</v>
+        <v>379.7123980300387</v>
       </c>
       <c r="AC9" t="n">
-        <v>271.5857613713975</v>
+        <v>343.4731796917488</v>
       </c>
       <c r="AD9" t="n">
-        <v>219434.724978814</v>
+        <v>277518.0198794653</v>
       </c>
       <c r="AE9" t="n">
-        <v>300240.2714927049</v>
+        <v>379712.3980300387</v>
       </c>
       <c r="AF9" t="n">
         <v>1.471955017128804e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>271585.7613713975</v>
+        <v>343473.1796917488</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>216.9549751451691</v>
+        <v>275.0382700458205</v>
       </c>
       <c r="AB10" t="n">
-        <v>296.8473683714721</v>
+        <v>376.3194949088042</v>
       </c>
       <c r="AC10" t="n">
-        <v>268.5166721620846</v>
+        <v>340.4040904824354</v>
       </c>
       <c r="AD10" t="n">
-        <v>216954.9751451691</v>
+        <v>275038.2700458204</v>
       </c>
       <c r="AE10" t="n">
-        <v>296847.3683714721</v>
+        <v>376319.4949088042</v>
       </c>
       <c r="AF10" t="n">
         <v>1.480527991775649e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>268516.6721620846</v>
+        <v>340404.0904824354</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.6069976458986</v>
+        <v>269.5888073200646</v>
       </c>
       <c r="AB11" t="n">
-        <v>289.5300296208582</v>
+        <v>368.8632995940971</v>
       </c>
       <c r="AC11" t="n">
-        <v>261.8976899518775</v>
+        <v>333.6595039837282</v>
       </c>
       <c r="AD11" t="n">
-        <v>211606.9976458986</v>
+        <v>269588.8073200646</v>
       </c>
       <c r="AE11" t="n">
-        <v>289530.0296208581</v>
+        <v>368863.2995940971</v>
       </c>
       <c r="AF11" t="n">
         <v>1.504474618072847e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>261897.6899518775</v>
+        <v>333659.5039837282</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>211.4258476114285</v>
+        <v>269.4076572855946</v>
       </c>
       <c r="AB12" t="n">
-        <v>289.2821721519208</v>
+        <v>368.6154421251597</v>
       </c>
       <c r="AC12" t="n">
-        <v>261.6734876519053</v>
+        <v>333.4353016837559</v>
       </c>
       <c r="AD12" t="n">
-        <v>211425.8476114285</v>
+        <v>269407.6572855946</v>
       </c>
       <c r="AE12" t="n">
-        <v>289282.1721519208</v>
+        <v>368615.4421251597</v>
       </c>
       <c r="AF12" t="n">
         <v>1.500435428095007e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.44583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>261673.4876519053</v>
+        <v>333435.3016837559</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>211.3783446712766</v>
+        <v>269.3601543454427</v>
       </c>
       <c r="AB13" t="n">
-        <v>289.2171765335232</v>
+        <v>368.5504465067621</v>
       </c>
       <c r="AC13" t="n">
-        <v>261.6146951241057</v>
+        <v>333.3765091559563</v>
       </c>
       <c r="AD13" t="n">
-        <v>211378.3446712766</v>
+        <v>269360.1543454427</v>
       </c>
       <c r="AE13" t="n">
-        <v>289217.1765335232</v>
+        <v>368550.4465067621</v>
       </c>
       <c r="AF13" t="n">
         <v>1.50035299564648e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.44583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>261614.6951241056</v>
+        <v>333376.5091559563</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.994473540931</v>
+        <v>350.736842232258</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.6278147155354</v>
+        <v>479.8936209595967</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.5875460830506</v>
+        <v>434.0932473101392</v>
       </c>
       <c r="AD2" t="n">
-        <v>275994.473540931</v>
+        <v>350736.8422322579</v>
       </c>
       <c r="AE2" t="n">
-        <v>377627.8147155354</v>
+        <v>479893.6209595967</v>
       </c>
       <c r="AF2" t="n">
         <v>1.560184131214091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>341587.5460830506</v>
+        <v>434093.2473101392</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.0492881193232</v>
+        <v>271.5034948786305</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.9257262577618</v>
+        <v>371.4830595817805</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.0191306290458</v>
+        <v>336.0292377550433</v>
       </c>
       <c r="AD3" t="n">
-        <v>206049.2881193232</v>
+        <v>271503.4948786306</v>
       </c>
       <c r="AE3" t="n">
-        <v>281925.7262577618</v>
+        <v>371483.0595817805</v>
       </c>
       <c r="AF3" t="n">
         <v>1.905069967004226e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>255019.1306290458</v>
+        <v>336029.2377550433</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.1822118675434</v>
+        <v>240.3151023059018</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.0062278227731</v>
+        <v>328.8097249288465</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.9551071324031</v>
+        <v>297.4285862690825</v>
       </c>
       <c r="AD4" t="n">
-        <v>184182.2118675434</v>
+        <v>240315.1023059018</v>
       </c>
       <c r="AE4" t="n">
-        <v>252006.2278227731</v>
+        <v>328809.7249288465</v>
       </c>
       <c r="AF4" t="n">
         <v>2.02081814075064e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8625</v>
       </c>
       <c r="AH4" t="n">
-        <v>227955.1071324031</v>
+        <v>297428.5862690825</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.276493017155</v>
+        <v>237.4093834555134</v>
       </c>
       <c r="AB5" t="n">
-        <v>248.0304951004053</v>
+        <v>324.8339922064787</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.3588127610809</v>
+        <v>293.8322918977603</v>
       </c>
       <c r="AD5" t="n">
-        <v>181276.493017155</v>
+        <v>237409.3834555134</v>
       </c>
       <c r="AE5" t="n">
-        <v>248030.4951004053</v>
+        <v>324833.9922064787</v>
       </c>
       <c r="AF5" t="n">
         <v>2.054760199652422e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>224358.8127610809</v>
+        <v>293832.2918977603</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.1607085529283</v>
+        <v>448.5038397092383</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.8925029618368</v>
+        <v>613.6627400831211</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.4697798721663</v>
+        <v>555.0956294506523</v>
       </c>
       <c r="AD2" t="n">
-        <v>363160.7085529283</v>
+        <v>448503.8397092383</v>
       </c>
       <c r="AE2" t="n">
-        <v>496892.5029618368</v>
+        <v>613662.7400831211</v>
       </c>
       <c r="AF2" t="n">
         <v>1.170421132037625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.7375</v>
       </c>
       <c r="AH2" t="n">
-        <v>449469.7798721663</v>
+        <v>555095.6294506523</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.5044985154241</v>
+        <v>298.3667648973769</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.4371092951716</v>
+        <v>408.2385707452606</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.9006553555344</v>
+        <v>369.2768545197648</v>
       </c>
       <c r="AD3" t="n">
-        <v>241504.4985154241</v>
+        <v>298366.7648973769</v>
       </c>
       <c r="AE3" t="n">
-        <v>330437.1092951716</v>
+        <v>408238.5707452606</v>
       </c>
       <c r="AF3" t="n">
         <v>1.582980506932427e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>298900.6553555344</v>
+        <v>369276.8545197648</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.0015822108626</v>
+        <v>275.8296831740341</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.6476264486839</v>
+        <v>377.4023412655093</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.0496775385951</v>
+        <v>341.383591502641</v>
       </c>
       <c r="AD4" t="n">
-        <v>219001.5822108625</v>
+        <v>275829.6831740341</v>
       </c>
       <c r="AE4" t="n">
-        <v>299647.6264486839</v>
+        <v>377402.3412655093</v>
       </c>
       <c r="AF4" t="n">
         <v>1.682122296093235e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.34166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>271049.677538595</v>
+        <v>341383.591502641</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.2869909307975</v>
+        <v>257.18241170167</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.0414970298144</v>
+        <v>351.8883217772973</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.887361173026</v>
+        <v>318.3045942253386</v>
       </c>
       <c r="AD5" t="n">
-        <v>200286.9909307974</v>
+        <v>257182.41170167</v>
       </c>
       <c r="AE5" t="n">
-        <v>274041.4970298144</v>
+        <v>351888.3217772973</v>
       </c>
       <c r="AF5" t="n">
         <v>1.749478928729121e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>247887.361173026</v>
+        <v>318304.5942253386</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.5789288637722</v>
+        <v>251.4743496346447</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.2314746877886</v>
+        <v>344.0782994352716</v>
       </c>
       <c r="AC6" t="n">
-        <v>240.8227164018855</v>
+        <v>311.2399494541982</v>
       </c>
       <c r="AD6" t="n">
-        <v>194578.9288637722</v>
+        <v>251474.3496346448</v>
       </c>
       <c r="AE6" t="n">
-        <v>266231.4746877886</v>
+        <v>344078.2994352715</v>
       </c>
       <c r="AF6" t="n">
         <v>1.783555805003489e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>240822.7164018855</v>
+        <v>311239.9494541981</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.2231005384227</v>
+        <v>249.1185213092953</v>
       </c>
       <c r="AB7" t="n">
-        <v>263.0081264412365</v>
+        <v>340.8549511887194</v>
       </c>
       <c r="AC7" t="n">
-        <v>237.9069999879856</v>
+        <v>308.3242330402982</v>
       </c>
       <c r="AD7" t="n">
-        <v>192223.1005384227</v>
+        <v>249118.5213092953</v>
       </c>
       <c r="AE7" t="n">
-        <v>263008.1264412365</v>
+        <v>340854.9511887194</v>
       </c>
       <c r="AF7" t="n">
         <v>1.800942983102546e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.525</v>
       </c>
       <c r="AH7" t="n">
-        <v>237906.9999879856</v>
+        <v>308324.2330402982</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.8978191755142</v>
+        <v>291.8394338673726</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.1374091691326</v>
+        <v>399.3075884644873</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.6835932766003</v>
+        <v>361.1982326531561</v>
       </c>
       <c r="AD2" t="n">
-        <v>217897.8191755142</v>
+        <v>291839.4338673726</v>
       </c>
       <c r="AE2" t="n">
-        <v>298137.4091691326</v>
+        <v>399307.5884644873</v>
       </c>
       <c r="AF2" t="n">
         <v>1.978063521983139e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.87916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269683.5932766004</v>
+        <v>361198.2326531561</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.6830135909938</v>
+        <v>238.3733850916716</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.6407615488676</v>
+        <v>326.1529817738203</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.9606607976161</v>
+        <v>295.0253989520087</v>
       </c>
       <c r="AD3" t="n">
-        <v>173683.0135909938</v>
+        <v>238373.3850916716</v>
       </c>
       <c r="AE3" t="n">
-        <v>237640.7615488676</v>
+        <v>326152.9817738203</v>
       </c>
       <c r="AF3" t="n">
         <v>2.291180039520243e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214960.6607976161</v>
+        <v>295025.3989520087</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.5203704470904</v>
+        <v>238.2107419477681</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.41822602407</v>
+        <v>325.9304462490226</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.7593637509744</v>
+        <v>294.8241019053671</v>
       </c>
       <c r="AD4" t="n">
-        <v>173520.3704470904</v>
+        <v>238210.7419477681</v>
       </c>
       <c r="AE4" t="n">
-        <v>237418.2260240699</v>
+        <v>325930.4462490226</v>
       </c>
       <c r="AF4" t="n">
         <v>2.301722683208361e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>214759.3637509744</v>
+        <v>294824.1019053671</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.4827314108228</v>
+        <v>830.5973192690857</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.9043527009112</v>
+        <v>1136.459895591531</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.9106741273914</v>
+        <v>1027.997758187755</v>
       </c>
       <c r="AD2" t="n">
-        <v>704482.7314108228</v>
+        <v>830597.3192690857</v>
       </c>
       <c r="AE2" t="n">
-        <v>963904.3527009112</v>
+        <v>1136459.89559153</v>
       </c>
       <c r="AF2" t="n">
         <v>6.626334814146742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>871910.6741273914</v>
+        <v>1027997.758187755</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.0288681528003</v>
+        <v>418.5988125169291</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.6107425384931</v>
+        <v>572.7453625619167</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.0780681629088</v>
+        <v>518.0833490121717</v>
       </c>
       <c r="AD3" t="n">
-        <v>341028.8681528002</v>
+        <v>418598.8125169291</v>
       </c>
       <c r="AE3" t="n">
-        <v>466610.7425384931</v>
+        <v>572745.3625619167</v>
       </c>
       <c r="AF3" t="n">
         <v>1.085753616436366e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.43333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>422078.0681629088</v>
+        <v>518083.3490121716</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.72861626748</v>
+        <v>372.623797351563</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.9431364549098</v>
+        <v>509.8403185381421</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.1506686950198</v>
+        <v>461.1818741022423</v>
       </c>
       <c r="AD4" t="n">
-        <v>304728.6162674801</v>
+        <v>372623.797351563</v>
       </c>
       <c r="AE4" t="n">
-        <v>416943.1364549098</v>
+        <v>509840.3185381421</v>
       </c>
       <c r="AF4" t="n">
         <v>1.191332547466018e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.06666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>377150.6686950198</v>
+        <v>461181.8741022423</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.5243993313356</v>
+        <v>327.4527348043422</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.0927325735742</v>
+        <v>448.0352779544003</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.2031805525319</v>
+        <v>405.2754198478935</v>
       </c>
       <c r="AD5" t="n">
-        <v>259524.3993313356</v>
+        <v>327452.7348043422</v>
       </c>
       <c r="AE5" t="n">
-        <v>355092.7325735742</v>
+        <v>448035.2779544003</v>
       </c>
       <c r="AF5" t="n">
         <v>1.304834925891039e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.84166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>321203.1805525318</v>
+        <v>405275.4198478935</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.5725648038695</v>
+        <v>305.7588171891287</v>
       </c>
       <c r="AB6" t="n">
-        <v>338.7397052952093</v>
+        <v>418.3527028051665</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.4108632460978</v>
+        <v>378.4257080111468</v>
       </c>
       <c r="AD6" t="n">
-        <v>247572.5648038695</v>
+        <v>305758.8171891287</v>
       </c>
       <c r="AE6" t="n">
-        <v>338739.7052952093</v>
+        <v>418352.7028051665</v>
       </c>
       <c r="AF6" t="n">
         <v>1.367176770879976e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.25833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>306410.8632460978</v>
+        <v>378425.7080111468</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>244.1814933704611</v>
+        <v>302.3677457557203</v>
       </c>
       <c r="AB7" t="n">
-        <v>334.0998917565091</v>
+        <v>413.7128892664639</v>
       </c>
       <c r="AC7" t="n">
-        <v>302.2138669995105</v>
+        <v>374.2287117645587</v>
       </c>
       <c r="AD7" t="n">
-        <v>244181.493370461</v>
+        <v>302367.7457557203</v>
       </c>
       <c r="AE7" t="n">
-        <v>334099.8917565091</v>
+        <v>413712.8892664639</v>
       </c>
       <c r="AF7" t="n">
         <v>1.383828076573796e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>302213.8669995104</v>
+        <v>374228.7117645587</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>227.4561512883912</v>
+        <v>285.7097234813546</v>
       </c>
       <c r="AB8" t="n">
-        <v>311.2155408498162</v>
+        <v>390.9206482906008</v>
       </c>
       <c r="AC8" t="n">
-        <v>281.5135664249568</v>
+        <v>353.6117302783208</v>
       </c>
       <c r="AD8" t="n">
-        <v>227456.1512883912</v>
+        <v>285709.7234813546</v>
       </c>
       <c r="AE8" t="n">
-        <v>311215.5408498162</v>
+        <v>390920.6482906007</v>
       </c>
       <c r="AF8" t="n">
         <v>1.419302597399759e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.80833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>281513.5664249568</v>
+        <v>353611.7302783208</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>226.1472283385632</v>
+        <v>284.4008005315266</v>
       </c>
       <c r="AB9" t="n">
-        <v>309.4246147242573</v>
+        <v>389.129722165041</v>
       </c>
       <c r="AC9" t="n">
-        <v>279.8935637752401</v>
+        <v>351.9917276286039</v>
       </c>
       <c r="AD9" t="n">
-        <v>226147.2283385632</v>
+        <v>284400.8005315266</v>
       </c>
       <c r="AE9" t="n">
-        <v>309424.6147242573</v>
+        <v>389129.722165041</v>
       </c>
       <c r="AF9" t="n">
         <v>1.422761564283016e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.77916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>279893.5637752402</v>
+        <v>351991.7276286039</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.6639243613952</v>
+        <v>279.9174965543586</v>
       </c>
       <c r="AB10" t="n">
-        <v>303.2903604332871</v>
+        <v>382.9954678740676</v>
       </c>
       <c r="AC10" t="n">
-        <v>274.3447541043182</v>
+        <v>346.442917957681</v>
       </c>
       <c r="AD10" t="n">
-        <v>221663.9243613952</v>
+        <v>279917.4965543586</v>
       </c>
       <c r="AE10" t="n">
-        <v>303290.3604332871</v>
+        <v>382995.4678740676</v>
       </c>
       <c r="AF10" t="n">
         <v>1.443837129943792e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.60833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>274344.7541043182</v>
+        <v>346442.917957681</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>219.1930140740736</v>
+        <v>277.4465862670369</v>
       </c>
       <c r="AB11" t="n">
-        <v>299.9095519693069</v>
+        <v>379.6146594100856</v>
       </c>
       <c r="AC11" t="n">
-        <v>271.2866052551447</v>
+        <v>343.384769108507</v>
       </c>
       <c r="AD11" t="n">
-        <v>219193.0140740736</v>
+        <v>277446.5862670369</v>
       </c>
       <c r="AE11" t="n">
-        <v>299909.5519693069</v>
+        <v>379614.6594100855</v>
       </c>
       <c r="AF11" t="n">
         <v>1.448140728275286e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.57083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>271286.6052551446</v>
+        <v>343384.769108507</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.9531073661228</v>
+        <v>275.2066795590861</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.8448127937804</v>
+        <v>376.5499202345576</v>
       </c>
       <c r="AC12" t="n">
-        <v>268.514360485141</v>
+        <v>340.6125243385029</v>
       </c>
       <c r="AD12" t="n">
-        <v>216953.1073661228</v>
+        <v>275206.6795590861</v>
       </c>
       <c r="AE12" t="n">
-        <v>296844.8127937804</v>
+        <v>376549.9202345576</v>
       </c>
       <c r="AF12" t="n">
         <v>1.454053148412947e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.525</v>
       </c>
       <c r="AH12" t="n">
-        <v>268514.360485141</v>
+        <v>340612.5243385029</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>214.0261850308853</v>
+        <v>272.1782719973634</v>
       </c>
       <c r="AB13" t="n">
-        <v>292.8400685280104</v>
+        <v>372.4063194046961</v>
       </c>
       <c r="AC13" t="n">
-        <v>264.8918233914009</v>
+        <v>336.8643829562632</v>
       </c>
       <c r="AD13" t="n">
-        <v>214026.1850308853</v>
+        <v>272178.2719973634</v>
       </c>
       <c r="AE13" t="n">
-        <v>292840.0685280103</v>
+        <v>372406.3194046962</v>
       </c>
       <c r="AF13" t="n">
         <v>1.466843281771968e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.425</v>
       </c>
       <c r="AH13" t="n">
-        <v>264891.8233914009</v>
+        <v>336864.3829562631</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>214.2846446688346</v>
+        <v>272.4367316353126</v>
       </c>
       <c r="AB14" t="n">
-        <v>293.1937044070868</v>
+        <v>372.7599552837729</v>
       </c>
       <c r="AC14" t="n">
-        <v>265.2117087585096</v>
+        <v>337.1842683233719</v>
       </c>
       <c r="AD14" t="n">
-        <v>214284.6446688346</v>
+        <v>272436.7316353127</v>
       </c>
       <c r="AE14" t="n">
-        <v>293193.7044070868</v>
+        <v>372759.9552837729</v>
       </c>
       <c r="AF14" t="n">
         <v>1.465958429778576e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.43333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>265211.7087585096</v>
+        <v>337184.2683233719</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.489393619596</v>
+        <v>253.5933494094427</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.5819450842336</v>
+        <v>346.9776084108208</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.6625454131277</v>
+        <v>313.8625524503276</v>
       </c>
       <c r="AD2" t="n">
-        <v>198489.393619596</v>
+        <v>253593.3494094427</v>
       </c>
       <c r="AE2" t="n">
-        <v>271581.9450842335</v>
+        <v>346977.6084108208</v>
       </c>
       <c r="AF2" t="n">
         <v>2.295006243990874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>245662.5454131277</v>
+        <v>313862.5524503276</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.117213925091</v>
+        <v>233.1870042961569</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7078300690887</v>
+        <v>319.0567467624283</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.4486968134533</v>
+        <v>288.6064186504734</v>
       </c>
       <c r="AD3" t="n">
-        <v>178117.213925091</v>
+        <v>233187.0042961569</v>
       </c>
       <c r="AE3" t="n">
-        <v>243707.8300690887</v>
+        <v>319056.7467624283</v>
       </c>
       <c r="AF3" t="n">
         <v>2.466742386023617e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.17916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220448.6968134533</v>
+        <v>288606.4186504734</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.7741584360185</v>
+        <v>585.1113894102759</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.4481697142003</v>
+        <v>800.5752162838306</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.797677727469</v>
+        <v>724.169441256074</v>
       </c>
       <c r="AD2" t="n">
-        <v>479774.1584360185</v>
+        <v>585111.389410276</v>
       </c>
       <c r="AE2" t="n">
-        <v>656448.1697142003</v>
+        <v>800575.2162838306</v>
       </c>
       <c r="AF2" t="n">
         <v>9.11442889129356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>593797.677727469</v>
+        <v>724169.441256074</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.6233765666652</v>
+        <v>351.6751632441121</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.4342605156793</v>
+        <v>481.177473163817</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.2672012664796</v>
+        <v>435.2545704618866</v>
       </c>
       <c r="AD3" t="n">
-        <v>284623.3765666652</v>
+        <v>351675.1632441121</v>
       </c>
       <c r="AE3" t="n">
-        <v>389434.2605156793</v>
+        <v>481177.473163817</v>
       </c>
       <c r="AF3" t="n">
         <v>1.322638665682527e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>352267.2012664796</v>
+        <v>435254.5704618866</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.5139923338462</v>
+        <v>310.5989334002198</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.1865873901457</v>
+        <v>424.9751633360382</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.3877271200417</v>
+        <v>384.4161302036338</v>
       </c>
       <c r="AD4" t="n">
-        <v>243513.9923338462</v>
+        <v>310598.9334002198</v>
       </c>
       <c r="AE4" t="n">
-        <v>333186.5873901457</v>
+        <v>424975.1633360382</v>
       </c>
       <c r="AF4" t="n">
         <v>1.447140231596937e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>301387.7271200417</v>
+        <v>384416.1302036338</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.1331963003448</v>
+        <v>287.5965391942015</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.87839193806</v>
+        <v>393.5022727893523</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.8268401461835</v>
+        <v>355.9469681582443</v>
       </c>
       <c r="AD5" t="n">
-        <v>230133.1963003448</v>
+        <v>287596.5391942015</v>
       </c>
       <c r="AE5" t="n">
-        <v>314878.3919380599</v>
+        <v>393502.2727893523</v>
       </c>
       <c r="AF5" t="n">
         <v>1.532158039566568e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>284826.8401461835</v>
+        <v>355946.9681582443</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.6943193706475</v>
+        <v>281.7450950182398</v>
       </c>
       <c r="AB6" t="n">
-        <v>293.7542394076792</v>
+        <v>385.4960687203036</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.7187470853613</v>
+        <v>348.7048649687676</v>
       </c>
       <c r="AD6" t="n">
-        <v>214694.3193706475</v>
+        <v>281745.0950182398</v>
       </c>
       <c r="AE6" t="n">
-        <v>293754.2394076792</v>
+        <v>385496.0687203036</v>
       </c>
       <c r="AF6" t="n">
         <v>1.56644302802032e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.92083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>265718.7470853613</v>
+        <v>348704.8649687676</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.5978704542022</v>
+        <v>269.1285331557631</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.5175413945159</v>
+        <v>368.2335321766367</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.8863935843299</v>
+        <v>333.0898406847061</v>
       </c>
       <c r="AD7" t="n">
-        <v>211597.8704542022</v>
+        <v>269128.5331557631</v>
       </c>
       <c r="AE7" t="n">
-        <v>289517.5413945159</v>
+        <v>368233.5321766367</v>
       </c>
       <c r="AF7" t="n">
         <v>1.578185076353501e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>261886.39358433</v>
+        <v>333089.8406847061</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>204.7823072119909</v>
+        <v>262.3129699135517</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.1921870850979</v>
+        <v>358.9081778672139</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.4510380019829</v>
+        <v>324.6544851023576</v>
       </c>
       <c r="AD8" t="n">
-        <v>204782.3072119909</v>
+        <v>262312.9699135517</v>
       </c>
       <c r="AE8" t="n">
-        <v>280192.1870850979</v>
+        <v>358908.1778672139</v>
       </c>
       <c r="AF8" t="n">
         <v>1.617803285233392e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.54166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>253451.0380019828</v>
+        <v>324654.4851023576</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.4968483423562</v>
+        <v>258.9260258174318</v>
       </c>
       <c r="AB9" t="n">
-        <v>275.6968773154503</v>
+        <v>354.2740115334747</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.3847542875421</v>
+        <v>320.4625970994172</v>
       </c>
       <c r="AD9" t="n">
-        <v>201496.8483423562</v>
+        <v>258926.0258174317</v>
       </c>
       <c r="AE9" t="n">
-        <v>275696.8773154502</v>
+        <v>354274.0115334747</v>
       </c>
       <c r="AF9" t="n">
         <v>1.632279169247199e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.44166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>249384.7542875421</v>
+        <v>320462.5970994172</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>201.9763036296279</v>
+        <v>259.4054811047034</v>
       </c>
       <c r="AB10" t="n">
-        <v>276.3528891915695</v>
+        <v>354.9300234095942</v>
       </c>
       <c r="AC10" t="n">
-        <v>249.9781573109231</v>
+        <v>321.0560001227983</v>
       </c>
       <c r="AD10" t="n">
-        <v>201976.3036296279</v>
+        <v>259405.4811047034</v>
       </c>
       <c r="AE10" t="n">
-        <v>276352.8891915695</v>
+        <v>354930.0234095942</v>
       </c>
       <c r="AF10" t="n">
         <v>1.630441673133991e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>249978.1573109231</v>
+        <v>321056.0001227983</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.5513581651836</v>
+        <v>692.3302779475621</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.8630038923691</v>
+        <v>947.2768297440691</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.5750259770604</v>
+        <v>856.8700586246753</v>
       </c>
       <c r="AD2" t="n">
-        <v>576551.3581651836</v>
+        <v>692330.277947562</v>
       </c>
       <c r="AE2" t="n">
-        <v>788863.0038923691</v>
+        <v>947276.8297440691</v>
       </c>
       <c r="AF2" t="n">
         <v>7.763498893537672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>713575.0259770603</v>
+        <v>856870.0586246753</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.1964526871868</v>
+        <v>384.3710107358454</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.3197391176114</v>
+        <v>525.9133741409955</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.2050131386848</v>
+        <v>475.7209398370347</v>
       </c>
       <c r="AD3" t="n">
-        <v>307196.4526871868</v>
+        <v>384371.0107358454</v>
       </c>
       <c r="AE3" t="n">
-        <v>420319.7391176114</v>
+        <v>525913.3741409956</v>
       </c>
       <c r="AF3" t="n">
         <v>1.193967920505707e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>380205.0131386847</v>
+        <v>475720.9398370347</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.2731088526046</v>
+        <v>339.729256660129</v>
       </c>
       <c r="AB4" t="n">
-        <v>372.536079373944</v>
+        <v>464.8325567594077</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.9817588161653</v>
+        <v>420.4695899388799</v>
       </c>
       <c r="AD4" t="n">
-        <v>272273.1088526046</v>
+        <v>339729.2566601289</v>
       </c>
       <c r="AE4" t="n">
-        <v>372536.079373944</v>
+        <v>464832.5567594077</v>
       </c>
       <c r="AF4" t="n">
         <v>1.312840151820228e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>336981.7588161653</v>
+        <v>420469.5899388799</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.3177338011058</v>
+        <v>312.8412014163378</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.6545460411066</v>
+        <v>428.0431333575742</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.6201472611574</v>
+        <v>387.1912974722373</v>
       </c>
       <c r="AD5" t="n">
-        <v>245317.7338011058</v>
+        <v>312841.2014163377</v>
       </c>
       <c r="AE5" t="n">
-        <v>335654.5460411066</v>
+        <v>428043.1333575742</v>
       </c>
       <c r="AF5" t="n">
         <v>1.405188223336099e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.54166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>303620.1472611574</v>
+        <v>387191.2974722373</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.6446293313575</v>
+        <v>297.4838521242358</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.8923542258955</v>
+        <v>407.0305305376864</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.5987681384829</v>
+        <v>368.1841079741063</v>
       </c>
       <c r="AD6" t="n">
-        <v>239644.6293313575</v>
+        <v>297483.8521242358</v>
       </c>
       <c r="AE6" t="n">
-        <v>327892.3542258955</v>
+        <v>407030.5305376864</v>
       </c>
       <c r="AF6" t="n">
         <v>1.436915687210081e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.26666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>296598.7681384829</v>
+        <v>368184.1079741063</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>222.355228832389</v>
+        <v>289.8445310288398</v>
       </c>
       <c r="AB7" t="n">
-        <v>304.2362337087011</v>
+        <v>396.5780743919047</v>
       </c>
       <c r="AC7" t="n">
-        <v>275.2003545618684</v>
+        <v>358.7292195727638</v>
       </c>
       <c r="AD7" t="n">
-        <v>222355.228832389</v>
+        <v>289844.5310288398</v>
       </c>
       <c r="AE7" t="n">
-        <v>304236.2337087011</v>
+        <v>396578.0743919048</v>
       </c>
       <c r="AF7" t="n">
         <v>1.479980431508367e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>275200.3545618684</v>
+        <v>358729.2195727638</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>217.8072021978248</v>
+        <v>275.7137447984072</v>
       </c>
       <c r="AB8" t="n">
-        <v>298.0134230225191</v>
+        <v>377.2437092651361</v>
       </c>
       <c r="AC8" t="n">
-        <v>269.571440193804</v>
+        <v>341.240099117742</v>
       </c>
       <c r="AD8" t="n">
-        <v>217807.2021978248</v>
+        <v>275713.7447984072</v>
       </c>
       <c r="AE8" t="n">
-        <v>298013.4230225191</v>
+        <v>377243.7092651362</v>
       </c>
       <c r="AF8" t="n">
         <v>1.502401172645981e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>269571.440193804</v>
+        <v>341240.099117742</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>212.8620006003693</v>
+        <v>270.7685432009516</v>
       </c>
       <c r="AB9" t="n">
-        <v>291.2471800299868</v>
+        <v>370.4774662726003</v>
       </c>
       <c r="AC9" t="n">
-        <v>263.4509579359951</v>
+        <v>335.1196168599323</v>
       </c>
       <c r="AD9" t="n">
-        <v>212862.0006003693</v>
+        <v>270768.5432009516</v>
       </c>
       <c r="AE9" t="n">
-        <v>291247.1800299868</v>
+        <v>370477.4662726003</v>
       </c>
       <c r="AF9" t="n">
         <v>1.527444717463845e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.54166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>263450.9579359951</v>
+        <v>335119.6168599323</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>210.3873051684545</v>
+        <v>268.2938477690367</v>
       </c>
       <c r="AB10" t="n">
-        <v>287.8611925641855</v>
+        <v>367.0914788067973</v>
       </c>
       <c r="AC10" t="n">
-        <v>260.3881243616656</v>
+        <v>332.0567832856022</v>
       </c>
       <c r="AD10" t="n">
-        <v>210387.3051684545</v>
+        <v>268293.8477690368</v>
       </c>
       <c r="AE10" t="n">
-        <v>287861.1925641855</v>
+        <v>367091.4788067973</v>
       </c>
       <c r="AF10" t="n">
         <v>1.530744373706739e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>260388.1243616656</v>
+        <v>332056.7832856022</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.2330236910514</v>
+        <v>266.0380810651484</v>
       </c>
       <c r="AB11" t="n">
-        <v>284.9136096066128</v>
+        <v>364.0050392851339</v>
       </c>
       <c r="AC11" t="n">
-        <v>257.721854584604</v>
+        <v>329.2649092200413</v>
       </c>
       <c r="AD11" t="n">
-        <v>208233.0236910513</v>
+        <v>266038.0810651484</v>
       </c>
       <c r="AE11" t="n">
-        <v>284913.6096066128</v>
+        <v>364005.0392851339</v>
       </c>
       <c r="AF11" t="n">
         <v>1.538993514313974e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>257721.8545846041</v>
+        <v>329264.9092200412</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>208.5741959473536</v>
+        <v>266.3792533214507</v>
       </c>
       <c r="AB12" t="n">
-        <v>285.380416539143</v>
+        <v>364.4718462176643</v>
       </c>
       <c r="AC12" t="n">
-        <v>258.1441101186614</v>
+        <v>329.6871647540985</v>
       </c>
       <c r="AD12" t="n">
-        <v>208574.1959473536</v>
+        <v>266379.2533214507</v>
       </c>
       <c r="AE12" t="n">
-        <v>285380.416539143</v>
+        <v>364471.8462176643</v>
       </c>
       <c r="AF12" t="n">
         <v>1.538655088032652e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>258144.1101186614</v>
+        <v>329687.1647540986</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.743716069363</v>
+        <v>1013.050590075665</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.916990360151</v>
+        <v>1386.100509979311</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.734737245127</v>
+        <v>1253.813022711169</v>
       </c>
       <c r="AD2" t="n">
-        <v>866743.7160693631</v>
+        <v>1013050.590075665</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185916.990360151</v>
+        <v>1386100.509979311</v>
       </c>
       <c r="AF2" t="n">
         <v>5.630718200112712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072734.737245127</v>
+        <v>1253813.022711169</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.1600197090077</v>
+        <v>455.1953797154728</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.0469780916043</v>
+        <v>622.8184003295613</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.7961787790236</v>
+        <v>563.3774863332222</v>
       </c>
       <c r="AD3" t="n">
-        <v>377160.0197090077</v>
+        <v>455195.3797154728</v>
       </c>
       <c r="AE3" t="n">
-        <v>516046.9780916043</v>
+        <v>622818.4003295613</v>
       </c>
       <c r="AF3" t="n">
         <v>9.917785984217105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>466796.1787790236</v>
+        <v>563377.4863332222</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.8370588438859</v>
+        <v>375.8714078204938</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.5138035538924</v>
+        <v>514.2838424561954</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.6212580919237</v>
+        <v>465.2013143340815</v>
       </c>
       <c r="AD4" t="n">
-        <v>297837.0588438859</v>
+        <v>375871.4078204938</v>
       </c>
       <c r="AE4" t="n">
-        <v>407513.8035538924</v>
+        <v>514283.8424561954</v>
       </c>
       <c r="AF4" t="n">
         <v>1.154677944792954e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>368621.2580919237</v>
+        <v>465201.3143340815</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.8662238611244</v>
+        <v>342.4100793328278</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.3982907807384</v>
+        <v>468.5005766097435</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.3301030290487</v>
+        <v>423.787539122798</v>
       </c>
       <c r="AD5" t="n">
-        <v>283866.2238611244</v>
+        <v>342410.0793328278</v>
       </c>
       <c r="AE5" t="n">
-        <v>388398.2907807384</v>
+        <v>468500.5766097435</v>
       </c>
       <c r="AF5" t="n">
         <v>1.217822592276802e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.15833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>351330.1030290487</v>
+        <v>423787.539122798</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>262.4572774387705</v>
+        <v>330.762956857388</v>
       </c>
       <c r="AB6" t="n">
-        <v>359.105625789617</v>
+        <v>452.5644698040679</v>
       </c>
       <c r="AC6" t="n">
-        <v>324.8330888721665</v>
+        <v>409.3723519841896</v>
       </c>
       <c r="AD6" t="n">
-        <v>262457.2774387705</v>
+        <v>330762.956857388</v>
       </c>
       <c r="AE6" t="n">
-        <v>359105.625789617</v>
+        <v>452564.4698040679</v>
       </c>
       <c r="AF6" t="n">
         <v>1.270622592882968e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>324833.0888721665</v>
+        <v>409372.3519841896</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.2037990486843</v>
+        <v>316.7134891016071</v>
       </c>
       <c r="AB7" t="n">
-        <v>353.2858290060782</v>
+        <v>433.3413682018356</v>
       </c>
       <c r="AC7" t="n">
-        <v>319.5687253255124</v>
+        <v>391.9838762190818</v>
       </c>
       <c r="AD7" t="n">
-        <v>258203.7990486843</v>
+        <v>316713.4891016071</v>
       </c>
       <c r="AE7" t="n">
-        <v>353285.8290060782</v>
+        <v>433341.3682018355</v>
       </c>
       <c r="AF7" t="n">
         <v>1.29227328504704e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>319568.7253255125</v>
+        <v>391983.8762190818</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>250.8864403781861</v>
+        <v>309.3961304311119</v>
       </c>
       <c r="AB8" t="n">
-        <v>343.2738960538593</v>
+        <v>423.3294352497831</v>
       </c>
       <c r="AC8" t="n">
-        <v>310.5123172025203</v>
+        <v>382.927468096137</v>
       </c>
       <c r="AD8" t="n">
-        <v>250886.4403781861</v>
+        <v>309396.130431112</v>
       </c>
       <c r="AE8" t="n">
-        <v>343273.8960538593</v>
+        <v>423329.4352497831</v>
       </c>
       <c r="AF8" t="n">
         <v>1.326729804015084e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.07916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>310512.3172025203</v>
+        <v>382927.468096137</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>238.5113134043268</v>
+        <v>306.7828274041665</v>
       </c>
       <c r="AB9" t="n">
-        <v>326.3417013761627</v>
+        <v>419.7537987575236</v>
       </c>
       <c r="AC9" t="n">
-        <v>295.1961074203734</v>
+        <v>379.6930853322614</v>
       </c>
       <c r="AD9" t="n">
-        <v>238511.3134043268</v>
+        <v>306782.8274041665</v>
       </c>
       <c r="AE9" t="n">
-        <v>326341.7013761628</v>
+        <v>419753.7987575235</v>
       </c>
       <c r="AF9" t="n">
         <v>1.336420699974846e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.99166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>295196.1074203734</v>
+        <v>379693.0853322614</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>233.9564224034276</v>
+        <v>292.5334322640576</v>
       </c>
       <c r="AB10" t="n">
-        <v>320.1094985611268</v>
+        <v>400.2571476878801</v>
       </c>
       <c r="AC10" t="n">
-        <v>289.5586972950508</v>
+        <v>362.057167276983</v>
       </c>
       <c r="AD10" t="n">
-        <v>233956.4224034275</v>
+        <v>292533.4322640576</v>
       </c>
       <c r="AE10" t="n">
-        <v>320109.4985611268</v>
+        <v>400257.1476878801</v>
       </c>
       <c r="AF10" t="n">
         <v>1.356840802175774e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.80833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>289558.6972950508</v>
+        <v>362057.167276983</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>232.024042389632</v>
+        <v>290.6010522502621</v>
       </c>
       <c r="AB11" t="n">
-        <v>317.4655309756635</v>
+        <v>397.6131801024155</v>
       </c>
       <c r="AC11" t="n">
-        <v>287.1670662651115</v>
+        <v>359.6655362470434</v>
       </c>
       <c r="AD11" t="n">
-        <v>232024.042389632</v>
+        <v>290601.0522502621</v>
       </c>
       <c r="AE11" t="n">
-        <v>317465.5309756635</v>
+        <v>397613.1801024155</v>
       </c>
       <c r="AF11" t="n">
         <v>1.362724560437058e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.75833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>287167.0662651116</v>
+        <v>359665.5362470434</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>227.8469735215198</v>
+        <v>286.4239833821499</v>
       </c>
       <c r="AB12" t="n">
-        <v>311.7502810710426</v>
+        <v>391.8979301977917</v>
       </c>
       <c r="AC12" t="n">
-        <v>281.9972717899821</v>
+        <v>354.4957417719132</v>
       </c>
       <c r="AD12" t="n">
-        <v>227846.9735215198</v>
+        <v>286423.9833821498</v>
       </c>
       <c r="AE12" t="n">
-        <v>311750.2810710426</v>
+        <v>391897.9301977917</v>
       </c>
       <c r="AF12" t="n">
         <v>1.377260904376702e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.63333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>281997.2717899821</v>
+        <v>354495.7417719132</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>226.4317330840603</v>
+        <v>285.0087429446903</v>
       </c>
       <c r="AB13" t="n">
-        <v>309.8138866685098</v>
+        <v>389.9615357952579</v>
       </c>
       <c r="AC13" t="n">
-        <v>280.24568415148</v>
+        <v>352.7441541334106</v>
       </c>
       <c r="AD13" t="n">
-        <v>226431.7330840603</v>
+        <v>285008.7429446903</v>
       </c>
       <c r="AE13" t="n">
-        <v>309813.8866685099</v>
+        <v>389961.5357952579</v>
       </c>
       <c r="AF13" t="n">
         <v>1.381298777693269e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>280245.68415148</v>
+        <v>352744.1541334107</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>222.9253432974663</v>
+        <v>281.4008679316109</v>
       </c>
       <c r="AB14" t="n">
-        <v>305.0162894714944</v>
+        <v>385.0250820341507</v>
       </c>
       <c r="AC14" t="n">
-        <v>275.9059628974762</v>
+        <v>348.2788285909072</v>
       </c>
       <c r="AD14" t="n">
-        <v>222925.3432974663</v>
+        <v>281400.8679316109</v>
       </c>
       <c r="AE14" t="n">
-        <v>305016.2894714944</v>
+        <v>385025.0820341507</v>
       </c>
       <c r="AF14" t="n">
         <v>1.394066148560893e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.49583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>275905.9628974762</v>
+        <v>348278.8285909072</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>221.4608230125519</v>
+        <v>279.9363476466965</v>
       </c>
       <c r="AB15" t="n">
-        <v>303.0124682076005</v>
+        <v>383.0212607702558</v>
       </c>
       <c r="AC15" t="n">
-        <v>274.0933835226268</v>
+        <v>346.4662492160576</v>
       </c>
       <c r="AD15" t="n">
-        <v>221460.8230125519</v>
+        <v>279936.3476466965</v>
       </c>
       <c r="AE15" t="n">
-        <v>303012.4682076005</v>
+        <v>383021.2607702558</v>
       </c>
       <c r="AF15" t="n">
         <v>1.395296738524037e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>274093.3835226268</v>
+        <v>346466.2492160576</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>220.6190805144522</v>
+        <v>279.0946051485969</v>
       </c>
       <c r="AB16" t="n">
-        <v>301.8607589866432</v>
+        <v>381.8695515492977</v>
       </c>
       <c r="AC16" t="n">
-        <v>273.0515918132832</v>
+        <v>345.4244575067137</v>
       </c>
       <c r="AD16" t="n">
-        <v>220619.0805144522</v>
+        <v>279094.6051485969</v>
       </c>
       <c r="AE16" t="n">
-        <v>301860.7589866432</v>
+        <v>381869.5515492978</v>
       </c>
       <c r="AF16" t="n">
         <v>1.399872994949481e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.44583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>273051.5918132832</v>
+        <v>345424.4575067137</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>221.0001286534744</v>
+        <v>279.4756532876191</v>
       </c>
       <c r="AB17" t="n">
-        <v>302.3821258611104</v>
+        <v>382.3909184237654</v>
       </c>
       <c r="AC17" t="n">
-        <v>273.5232001649946</v>
+        <v>345.8960658584252</v>
       </c>
       <c r="AD17" t="n">
-        <v>221000.1286534744</v>
+        <v>279475.6532876191</v>
       </c>
       <c r="AE17" t="n">
-        <v>302382.1258611104</v>
+        <v>382390.9184237654</v>
       </c>
       <c r="AF17" t="n">
         <v>1.400296010249312e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.44166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>273523.2001649946</v>
+        <v>345896.0658584252</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.8973449827726</v>
+        <v>495.0605994560525</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.1571896311654</v>
+        <v>677.3637527079926</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.9372753927049</v>
+        <v>612.7171068355387</v>
       </c>
       <c r="AD2" t="n">
-        <v>399897.3449827726</v>
+        <v>495060.5994560525</v>
       </c>
       <c r="AE2" t="n">
-        <v>547157.1896311654</v>
+        <v>677363.7527079926</v>
       </c>
       <c r="AF2" t="n">
         <v>1.072440421701198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>494937.2753927049</v>
+        <v>612717.1068355388</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.083127539254</v>
+        <v>316.6198362372143</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.1747679879717</v>
+        <v>433.2132282211006</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.5180883766047</v>
+        <v>391.8679657382625</v>
       </c>
       <c r="AD3" t="n">
-        <v>250083.127539254</v>
+        <v>316619.8362372143</v>
       </c>
       <c r="AE3" t="n">
-        <v>342174.7679879717</v>
+        <v>433213.2282211006</v>
       </c>
       <c r="AF3" t="n">
         <v>1.499978360044125e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>309518.0883766047</v>
+        <v>391867.9657382625</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.0329106569974</v>
+        <v>284.1855280110174</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.6364443458847</v>
+        <v>388.8351768053271</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.9897380785933</v>
+        <v>351.725293264624</v>
       </c>
       <c r="AD4" t="n">
-        <v>227032.9106569974</v>
+        <v>284185.5280110174</v>
       </c>
       <c r="AE4" t="n">
-        <v>310636.4443458847</v>
+        <v>388835.1768053271</v>
       </c>
       <c r="AF4" t="n">
         <v>1.596387733671354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>280989.7380785933</v>
+        <v>351725.293264624</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.5188896799493</v>
+        <v>276.5700218074839</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.3554293498829</v>
+        <v>378.4153052452306</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.6899287243114</v>
+        <v>342.2998796218415</v>
       </c>
       <c r="AD5" t="n">
-        <v>219518.8896799493</v>
+        <v>276570.0218074839</v>
       </c>
       <c r="AE5" t="n">
-        <v>300355.4293498829</v>
+        <v>378415.3052452306</v>
       </c>
       <c r="AF5" t="n">
         <v>1.647588733688202e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>271689.9287243114</v>
+        <v>342299.8796218415</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.2403979768322</v>
+        <v>257.3588499120678</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.9777464946631</v>
+        <v>352.1297323206678</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.829694899475</v>
+        <v>318.5229648852717</v>
       </c>
       <c r="AD6" t="n">
-        <v>200240.3979768322</v>
+        <v>257358.8499120678</v>
       </c>
       <c r="AE6" t="n">
-        <v>273977.7464946631</v>
+        <v>352129.7323206678</v>
       </c>
       <c r="AF6" t="n">
         <v>1.715377323598148e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>247829.694899475</v>
+        <v>318522.9648852717</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>195.9195336369395</v>
+        <v>253.0379855721752</v>
       </c>
       <c r="AB7" t="n">
-        <v>268.0657492817437</v>
+        <v>346.2177351077485</v>
       </c>
       <c r="AC7" t="n">
-        <v>242.4819304030146</v>
+        <v>313.1752003888113</v>
       </c>
       <c r="AD7" t="n">
-        <v>195919.5336369395</v>
+        <v>253037.9855721752</v>
       </c>
       <c r="AE7" t="n">
-        <v>268065.7492817437</v>
+        <v>346217.7351077485</v>
       </c>
       <c r="AF7" t="n">
         <v>1.734745492143847e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>242481.9304030146</v>
+        <v>313175.2003888114</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>194.8527281582212</v>
+        <v>251.8696948669716</v>
       </c>
       <c r="AB8" t="n">
-        <v>266.6060989616259</v>
+        <v>344.6192282235415</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.1615870608163</v>
+        <v>311.7292527581141</v>
       </c>
       <c r="AD8" t="n">
-        <v>194852.7281582212</v>
+        <v>251869.6948669716</v>
       </c>
       <c r="AE8" t="n">
-        <v>266606.0989616259</v>
+        <v>344619.2282235415</v>
       </c>
       <c r="AF8" t="n">
         <v>1.743326933157906e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>241161.5870608164</v>
+        <v>311729.2527581141</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.2254814692206</v>
+        <v>381.3656286106907</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.9912134609633</v>
+        <v>521.8012777292571</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.0032801061097</v>
+        <v>472.0012961354689</v>
       </c>
       <c r="AD2" t="n">
-        <v>306225.4814692206</v>
+        <v>381365.6286106908</v>
       </c>
       <c r="AE2" t="n">
-        <v>418991.2134609633</v>
+        <v>521801.2777292571</v>
       </c>
       <c r="AF2" t="n">
         <v>1.410504361268287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>379003.2801061097</v>
+        <v>472001.2961354689</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.3949399983535</v>
+        <v>285.7673858213136</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.8682770961066</v>
+        <v>390.9995444480155</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.9131292470407</v>
+        <v>353.6830966972033</v>
       </c>
       <c r="AD3" t="n">
-        <v>229394.9399983535</v>
+        <v>285767.3858213136</v>
       </c>
       <c r="AE3" t="n">
-        <v>313868.2770961066</v>
+        <v>390999.5444480155</v>
       </c>
       <c r="AF3" t="n">
         <v>1.73632405469053e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283913.1292470407</v>
+        <v>353683.0966972033</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.1596079299602</v>
+        <v>246.5652081418403</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.1847648194706</v>
+        <v>337.3613954687824</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.3530960367872</v>
+        <v>305.1640973750347</v>
       </c>
       <c r="AD4" t="n">
-        <v>190159.6079299602</v>
+        <v>246565.2081418404</v>
       </c>
       <c r="AE4" t="n">
-        <v>260184.7648194706</v>
+        <v>337361.3954687824</v>
       </c>
       <c r="AF4" t="n">
         <v>1.921992764042406e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.81666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>235353.0960367872</v>
+        <v>305164.0973750346</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.5356117210173</v>
+        <v>240.9412119328974</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.489765093197</v>
+        <v>329.6663957425087</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.3924962843867</v>
+        <v>298.2034976226341</v>
       </c>
       <c r="AD5" t="n">
-        <v>184535.6117210173</v>
+        <v>240941.2119328974</v>
       </c>
       <c r="AE5" t="n">
-        <v>252489.765093197</v>
+        <v>329666.3957425087</v>
       </c>
       <c r="AF5" t="n">
         <v>1.962767923935302e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.57083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>228392.4962843867</v>
+        <v>298203.4976226341</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.526802947061</v>
+        <v>241.9324031589412</v>
       </c>
       <c r="AB6" t="n">
-        <v>253.84595665694</v>
+        <v>331.0225873062518</v>
       </c>
       <c r="AC6" t="n">
-        <v>229.6192548287134</v>
+        <v>299.4302561669608</v>
       </c>
       <c r="AD6" t="n">
-        <v>185526.802947061</v>
+        <v>241932.4031589412</v>
       </c>
       <c r="AE6" t="n">
-        <v>253845.95665694</v>
+        <v>331022.5873062518</v>
       </c>
       <c r="AF6" t="n">
         <v>1.954100476845769e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>229619.2548287134</v>
+        <v>299430.2561669608</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.3402517790541</v>
+        <v>321.7538257014948</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.4218443657298</v>
+        <v>440.2377791017591</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.1233385176071</v>
+        <v>398.22210334189</v>
       </c>
       <c r="AD2" t="n">
-        <v>247340.2517790541</v>
+        <v>321753.8257014948</v>
       </c>
       <c r="AE2" t="n">
-        <v>338421.8443657298</v>
+        <v>440237.7791017591</v>
       </c>
       <c r="AF2" t="n">
         <v>1.738574927324971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306123.3385176071</v>
+        <v>398222.10334189</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.1303528883908</v>
+        <v>249.8988375865995</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.6177132484968</v>
+        <v>341.922614344451</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.2675314929399</v>
+        <v>309.2899999229218</v>
       </c>
       <c r="AD3" t="n">
-        <v>194130.3528883908</v>
+        <v>249898.8375865995</v>
       </c>
       <c r="AE3" t="n">
-        <v>265617.7132484968</v>
+        <v>341922.614344451</v>
       </c>
       <c r="AF3" t="n">
         <v>2.085261423801654e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.23333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>240267.5314929399</v>
+        <v>309289.9999229218</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.9214877891351</v>
+        <v>233.7572922950481</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.4400289350462</v>
+        <v>319.8370399618418</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.2064542437824</v>
+        <v>289.3122417620834</v>
       </c>
       <c r="AD4" t="n">
-        <v>177921.487789135</v>
+        <v>233757.2922950481</v>
       </c>
       <c r="AE4" t="n">
-        <v>243440.0289350462</v>
+        <v>319837.0399618418</v>
       </c>
       <c r="AF4" t="n">
         <v>2.157867848809838e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>220206.4542437824</v>
+        <v>289312.2417620834</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.4655767328701</v>
+        <v>234.3013812387832</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.1844754313742</v>
+        <v>320.5814864581698</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.8798518113384</v>
+        <v>289.9856393296394</v>
       </c>
       <c r="AD5" t="n">
-        <v>178465.5767328701</v>
+        <v>234301.3812387832</v>
       </c>
       <c r="AE5" t="n">
-        <v>244184.4754313742</v>
+        <v>320581.4864581698</v>
       </c>
       <c r="AF5" t="n">
         <v>2.157929068392475e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>220879.8518113384</v>
+        <v>289985.6393296394</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9448459627593</v>
+        <v>237.7346887093003</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.999012151146</v>
+        <v>325.2790892061646</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2847204652209</v>
+        <v>294.2349094644938</v>
       </c>
       <c r="AD2" t="n">
-        <v>173944.8459627593</v>
+        <v>237734.6887093002</v>
       </c>
       <c r="AE2" t="n">
-        <v>237999.012151146</v>
+        <v>325279.0892061646</v>
       </c>
       <c r="AF2" t="n">
         <v>2.64524175505854e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.75416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215284.7204652209</v>
+        <v>294234.9094644938</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.5974393615748</v>
+        <v>237.3872821081158</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.5236751129081</v>
+        <v>324.8037521679267</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.8547489267726</v>
+        <v>293.8049379260455</v>
       </c>
       <c r="AD3" t="n">
-        <v>173597.4393615748</v>
+        <v>237387.2821081158</v>
       </c>
       <c r="AE3" t="n">
-        <v>237523.6751129081</v>
+        <v>324803.7521679267</v>
       </c>
       <c r="AF3" t="n">
         <v>2.667589068324415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214854.7489267726</v>
+        <v>293804.9379260455</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.880157138385</v>
+        <v>629.603459026289</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.7959429581118</v>
+        <v>861.4512287840396</v>
       </c>
       <c r="AC2" t="n">
-        <v>648.3859441916134</v>
+        <v>779.2355325632833</v>
       </c>
       <c r="AD2" t="n">
-        <v>523880.1571383851</v>
+        <v>629603.4590262889</v>
       </c>
       <c r="AE2" t="n">
-        <v>716795.9429581119</v>
+        <v>861451.2287840396</v>
       </c>
       <c r="AF2" t="n">
         <v>8.435392557649699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>648385.9441916134</v>
+        <v>779235.5325632833</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.1124386709348</v>
+        <v>362.3881652087508</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.7858580315021</v>
+        <v>495.835475076126</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.2491024579859</v>
+        <v>448.5136332443198</v>
       </c>
       <c r="AD3" t="n">
-        <v>295112.4386709348</v>
+        <v>362388.1652087508</v>
       </c>
       <c r="AE3" t="n">
-        <v>403785.8580315021</v>
+        <v>495835.475076126</v>
       </c>
       <c r="AF3" t="n">
         <v>1.258066616536391e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>365249.1024579859</v>
+        <v>448513.6332443198</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.1208749833052</v>
+        <v>319.8103317476848</v>
       </c>
       <c r="AB4" t="n">
-        <v>358.6453451090204</v>
+        <v>437.5786049332542</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.416736733718</v>
+        <v>395.8167170238528</v>
       </c>
       <c r="AD4" t="n">
-        <v>262120.8749833052</v>
+        <v>319810.3317476847</v>
       </c>
       <c r="AE4" t="n">
-        <v>358645.3451090204</v>
+        <v>437578.6049332541</v>
       </c>
       <c r="AF4" t="n">
         <v>1.380075981380445e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>324416.736733718</v>
+        <v>395816.7170238529</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.8061280932089</v>
+        <v>295.4614194388105</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.3768357229114</v>
+        <v>404.2633489140546</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.3233271908705</v>
+        <v>365.6810222808703</v>
       </c>
       <c r="AD5" t="n">
-        <v>237806.1280932089</v>
+        <v>295461.4194388106</v>
       </c>
       <c r="AE5" t="n">
-        <v>325376.8357229115</v>
+        <v>404263.3489140546</v>
       </c>
       <c r="AF5" t="n">
         <v>1.464764834625141e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>294323.3271908705</v>
+        <v>365681.0222808702</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.895126806591</v>
+        <v>289.5504181521925</v>
       </c>
       <c r="AB6" t="n">
-        <v>317.2891429875927</v>
+        <v>396.1756561787317</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.0075124990599</v>
+        <v>358.3652075890585</v>
       </c>
       <c r="AD6" t="n">
-        <v>231895.1268065909</v>
+        <v>289550.4181521925</v>
       </c>
       <c r="AE6" t="n">
-        <v>317289.1429875927</v>
+        <v>396175.6561787317</v>
       </c>
       <c r="AF6" t="n">
         <v>1.498692572442739e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.09166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>287007.5124990599</v>
+        <v>358365.2075890584</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>214.6742799115607</v>
+        <v>272.3968910648665</v>
       </c>
       <c r="AB7" t="n">
-        <v>293.726820535678</v>
+        <v>372.7054436576464</v>
       </c>
       <c r="AC7" t="n">
-        <v>265.6939450320213</v>
+        <v>337.1349592103354</v>
       </c>
       <c r="AD7" t="n">
-        <v>214674.2799115606</v>
+        <v>272396.8910648664</v>
       </c>
       <c r="AE7" t="n">
-        <v>293726.820535678</v>
+        <v>372705.4436576464</v>
       </c>
       <c r="AF7" t="n">
         <v>1.543407591002343e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.74166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>265693.9450320213</v>
+        <v>337134.9592103354</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>211.0009865882288</v>
+        <v>268.7235977415347</v>
       </c>
       <c r="AB8" t="n">
-        <v>288.7008585564338</v>
+        <v>367.6794816783996</v>
       </c>
       <c r="AC8" t="n">
-        <v>261.1476538100927</v>
+        <v>332.588667988406</v>
       </c>
       <c r="AD8" t="n">
-        <v>211000.9865882288</v>
+        <v>268723.5977415346</v>
       </c>
       <c r="AE8" t="n">
-        <v>288700.8585564338</v>
+        <v>367679.4816783996</v>
       </c>
       <c r="AF8" t="n">
         <v>1.560153974412311e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.61666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>261147.6538100927</v>
+        <v>332588.667988406</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>208.0382342854533</v>
+        <v>265.7608454387591</v>
       </c>
       <c r="AB9" t="n">
-        <v>284.6470901483717</v>
+        <v>363.6257132703353</v>
       </c>
       <c r="AC9" t="n">
-        <v>257.480771369395</v>
+        <v>328.9217855477077</v>
       </c>
       <c r="AD9" t="n">
-        <v>208038.2342854533</v>
+        <v>265760.8454387591</v>
       </c>
       <c r="AE9" t="n">
-        <v>284647.0901483716</v>
+        <v>363625.7132703353</v>
       </c>
       <c r="AF9" t="n">
         <v>1.569114376964138e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.55</v>
       </c>
       <c r="AH9" t="n">
-        <v>257480.771369395</v>
+        <v>328921.7855477077</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>204.2930506665458</v>
+        <v>261.9141765933662</v>
       </c>
       <c r="AB10" t="n">
-        <v>279.5227646951447</v>
+        <v>358.3625312530165</v>
       </c>
       <c r="AC10" t="n">
-        <v>252.8455043453864</v>
+        <v>324.1609142351994</v>
       </c>
       <c r="AD10" t="n">
-        <v>204293.0506665458</v>
+        <v>261914.1765933662</v>
       </c>
       <c r="AE10" t="n">
-        <v>279522.7646951447</v>
+        <v>358362.5312530165</v>
       </c>
       <c r="AF10" t="n">
         <v>1.589123042856567e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.40416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>252845.5043453864</v>
+        <v>324160.9142351993</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>205.3915628143541</v>
+        <v>263.0126887411745</v>
       </c>
       <c r="AB11" t="n">
-        <v>281.0257974787109</v>
+        <v>359.8655640365834</v>
       </c>
       <c r="AC11" t="n">
-        <v>254.2050897896093</v>
+        <v>325.5204996794225</v>
       </c>
       <c r="AD11" t="n">
-        <v>205391.5628143541</v>
+        <v>263012.6887411745</v>
       </c>
       <c r="AE11" t="n">
-        <v>281025.7974787109</v>
+        <v>359865.5640365834</v>
       </c>
       <c r="AF11" t="n">
         <v>1.582598477891645e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>254205.0897896093</v>
+        <v>325520.4996794225</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.4229750113992</v>
+        <v>912.6974126940573</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.336167774773</v>
+        <v>1248.792865416071</v>
       </c>
       <c r="AC2" t="n">
-        <v>960.9482949205241</v>
+        <v>1129.609827032555</v>
       </c>
       <c r="AD2" t="n">
-        <v>776422.9750113992</v>
+        <v>912697.4126940573</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062336.167774773</v>
+        <v>1248792.865416071</v>
       </c>
       <c r="AF2" t="n">
         <v>6.107422713439245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>960948.2949205241</v>
+        <v>1129609.827032555</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.6806810387512</v>
+        <v>430.5713113824306</v>
       </c>
       <c r="AB3" t="n">
-        <v>482.5532669707565</v>
+        <v>589.126663699068</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.4990604388306</v>
+        <v>532.9012417600937</v>
       </c>
       <c r="AD3" t="n">
-        <v>352680.6810387512</v>
+        <v>430571.3113824306</v>
       </c>
       <c r="AE3" t="n">
-        <v>482553.2669707565</v>
+        <v>589126.663699068</v>
       </c>
       <c r="AF3" t="n">
         <v>1.040215261817897e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>436499.0604388306</v>
+        <v>532901.2417600937</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.9343230998339</v>
+        <v>372.7566226059516</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.5421524492174</v>
+        <v>510.0220559110334</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.0286557944315</v>
+        <v>461.3462667153348</v>
       </c>
       <c r="AD4" t="n">
-        <v>294934.3230998339</v>
+        <v>372756.6226059516</v>
       </c>
       <c r="AE4" t="n">
-        <v>403542.1524492174</v>
+        <v>510022.0559110334</v>
       </c>
       <c r="AF4" t="n">
         <v>1.177778679650688e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>365028.6557944315</v>
+        <v>461346.2667153348</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.9611045799126</v>
+        <v>335.3459229487486</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.9504019478217</v>
+        <v>458.8350861964617</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.7839074461504</v>
+        <v>415.0445095489587</v>
       </c>
       <c r="AD5" t="n">
-        <v>276961.1045799126</v>
+        <v>335345.9229487486</v>
       </c>
       <c r="AE5" t="n">
-        <v>378950.4019478217</v>
+        <v>458835.0861964617</v>
       </c>
       <c r="AF5" t="n">
         <v>1.258155019498704e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>342783.9074461504</v>
+        <v>415044.5095489587</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>253.6479052738672</v>
+        <v>311.9985582239255</v>
       </c>
       <c r="AB6" t="n">
-        <v>347.0522541513614</v>
+        <v>426.8901917669218</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.930074106157</v>
+        <v>386.1483910088331</v>
       </c>
       <c r="AD6" t="n">
-        <v>253647.9052738672</v>
+        <v>311998.5582239255</v>
       </c>
       <c r="AE6" t="n">
-        <v>347052.2541513614</v>
+        <v>426890.1917669218</v>
       </c>
       <c r="AF6" t="n">
         <v>1.323360079551447e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>313930.0741061569</v>
+        <v>386148.3910088331</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.7305609011061</v>
+        <v>309.0812138511643</v>
       </c>
       <c r="AB7" t="n">
-        <v>343.0606148764014</v>
+        <v>422.8985524919598</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.319391281297</v>
+        <v>382.5377081839725</v>
       </c>
       <c r="AD7" t="n">
-        <v>250730.5609011061</v>
+        <v>309081.2138511643</v>
       </c>
       <c r="AE7" t="n">
-        <v>343060.6148764014</v>
+        <v>422898.5524919598</v>
       </c>
       <c r="AF7" t="n">
         <v>1.338295536344722e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.2375</v>
       </c>
       <c r="AH7" t="n">
-        <v>310319.391281297</v>
+        <v>382537.7081839725</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.1775927283815</v>
+        <v>303.2635634415423</v>
       </c>
       <c r="AB8" t="n">
-        <v>321.7803576739605</v>
+        <v>414.9385865448928</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.0700919592217</v>
+        <v>375.3374302150112</v>
       </c>
       <c r="AD8" t="n">
-        <v>235177.5927283815</v>
+        <v>303263.5634415423</v>
       </c>
       <c r="AE8" t="n">
-        <v>321780.3576739605</v>
+        <v>414938.5865448928</v>
       </c>
       <c r="AF8" t="n">
         <v>1.366515688917277e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.98333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>291070.0919592217</v>
+        <v>375337.4302150112</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>231.7330796701824</v>
+        <v>290.1510524279448</v>
       </c>
       <c r="AB9" t="n">
-        <v>317.0674229465435</v>
+        <v>396.9974704929299</v>
       </c>
       <c r="AC9" t="n">
-        <v>286.8069531075425</v>
+        <v>359.1085890985333</v>
       </c>
       <c r="AD9" t="n">
-        <v>231733.0796701824</v>
+        <v>290151.0524279448</v>
       </c>
       <c r="AE9" t="n">
-        <v>317067.4229465435</v>
+        <v>396997.47049293</v>
       </c>
       <c r="AF9" t="n">
         <v>1.381765576379883e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>286806.9531075425</v>
+        <v>359108.5890985333</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>228.0866208350878</v>
+        <v>286.5045935928501</v>
       </c>
       <c r="AB10" t="n">
-        <v>312.0781770979594</v>
+        <v>392.0082246443433</v>
       </c>
       <c r="AC10" t="n">
-        <v>282.2938738802951</v>
+        <v>354.5955098712853</v>
       </c>
       <c r="AD10" t="n">
-        <v>228086.6208350878</v>
+        <v>286504.5935928501</v>
       </c>
       <c r="AE10" t="n">
-        <v>312078.1770979594</v>
+        <v>392008.2246443433</v>
       </c>
       <c r="AF10" t="n">
         <v>1.396347298670159e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.72916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>282293.8738802951</v>
+        <v>354595.5098712853</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>225.1953190693464</v>
+        <v>283.6132918271087</v>
       </c>
       <c r="AB11" t="n">
-        <v>308.1221704668425</v>
+        <v>388.0522180132244</v>
       </c>
       <c r="AC11" t="n">
-        <v>278.7154229697606</v>
+        <v>351.0170589607501</v>
       </c>
       <c r="AD11" t="n">
-        <v>225195.3190693464</v>
+        <v>283613.2918271087</v>
       </c>
       <c r="AE11" t="n">
-        <v>308122.1704668425</v>
+        <v>388052.2180132244</v>
       </c>
       <c r="AF11" t="n">
         <v>1.406644903090785e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.64166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>278715.4229697606</v>
+        <v>351017.0589607502</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>220.2056421583811</v>
+        <v>278.5221296896581</v>
       </c>
       <c r="AB12" t="n">
-        <v>301.2950743882539</v>
+        <v>381.086265370543</v>
       </c>
       <c r="AC12" t="n">
-        <v>272.5398953590208</v>
+        <v>344.7159270615103</v>
       </c>
       <c r="AD12" t="n">
-        <v>220205.6421583811</v>
+        <v>278522.1296896581</v>
       </c>
       <c r="AE12" t="n">
-        <v>301295.0743882539</v>
+        <v>381086.265370543</v>
       </c>
       <c r="AF12" t="n">
         <v>1.428497834609366e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.4625</v>
       </c>
       <c r="AH12" t="n">
-        <v>272539.8953590207</v>
+        <v>344715.9270615103</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>219.868614829145</v>
+        <v>278.2865875869072</v>
       </c>
       <c r="AB13" t="n">
-        <v>300.8339387277969</v>
+        <v>380.763986274175</v>
       </c>
       <c r="AC13" t="n">
-        <v>272.1227698387896</v>
+        <v>344.4244058297781</v>
       </c>
       <c r="AD13" t="n">
-        <v>219868.614829145</v>
+        <v>278286.5875869072</v>
       </c>
       <c r="AE13" t="n">
-        <v>300833.9387277969</v>
+        <v>380763.986274175</v>
       </c>
       <c r="AF13" t="n">
         <v>1.422838082561388e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.50833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>272122.7698387896</v>
+        <v>344424.4058297781</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>217.8416783700022</v>
+        <v>276.1581659012791</v>
       </c>
       <c r="AB14" t="n">
-        <v>298.0605948422735</v>
+        <v>377.8517858245609</v>
       </c>
       <c r="AC14" t="n">
-        <v>269.6141100012872</v>
+        <v>341.7901417037762</v>
       </c>
       <c r="AD14" t="n">
-        <v>217841.6783700022</v>
+        <v>276158.1659012791</v>
       </c>
       <c r="AE14" t="n">
-        <v>298060.5948422735</v>
+        <v>377851.7858245609</v>
       </c>
       <c r="AF14" t="n">
         <v>1.42755454260137e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.47083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>269614.1100012872</v>
+        <v>341790.1417037762</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>217.8872087769401</v>
+        <v>276.2036963082171</v>
       </c>
       <c r="AB15" t="n">
-        <v>298.1228915537058</v>
+        <v>377.9140825359933</v>
       </c>
       <c r="AC15" t="n">
-        <v>269.6704612020143</v>
+        <v>341.8464929045034</v>
       </c>
       <c r="AD15" t="n">
-        <v>217887.2087769401</v>
+        <v>276203.6963082171</v>
       </c>
       <c r="AE15" t="n">
-        <v>298122.8915537058</v>
+        <v>377914.0825359933</v>
       </c>
       <c r="AF15" t="n">
         <v>1.429637645785695e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>269670.4612020144</v>
+        <v>341846.4929045034</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.818678360753</v>
+        <v>239.0263638649122</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.5628723057307</v>
+        <v>327.046416138758</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.6038894050532</v>
+        <v>295.8335651951001</v>
       </c>
       <c r="AD2" t="n">
-        <v>175818.678360753</v>
+        <v>239026.3638649122</v>
       </c>
       <c r="AE2" t="n">
-        <v>240562.8723057307</v>
+        <v>327046.4161387581</v>
       </c>
       <c r="AF2" t="n">
         <v>2.930561040599891e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217603.8894050532</v>
+        <v>295833.5651951001</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.6255954281356</v>
+        <v>413.5794007539856</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.6400376028333</v>
+        <v>565.8775819470388</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.7270234877745</v>
+        <v>511.8710197401871</v>
       </c>
       <c r="AD2" t="n">
-        <v>328625.5954281357</v>
+        <v>413579.4007539856</v>
       </c>
       <c r="AE2" t="n">
-        <v>449640.0376028334</v>
+        <v>565877.5819470389</v>
       </c>
       <c r="AF2" t="n">
         <v>1.283042763751027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.88333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>406727.0234877745</v>
+        <v>511871.0197401871</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.897327998582</v>
+        <v>303.8975977957014</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.5016194568988</v>
+        <v>415.8061003198748</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.4362017404212</v>
+        <v>376.1221496928723</v>
       </c>
       <c r="AD3" t="n">
-        <v>237897.327998582</v>
+        <v>303897.5977957014</v>
       </c>
       <c r="AE3" t="n">
-        <v>325501.6194568988</v>
+        <v>415806.1003198748</v>
       </c>
       <c r="AF3" t="n">
         <v>1.638086199308093e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>294436.2017404212</v>
+        <v>376122.1496928722</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.7931223896803</v>
+        <v>266.3844497450657</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.0482054727731</v>
+        <v>364.4789561937045</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.6527276172227</v>
+        <v>329.6935961640044</v>
       </c>
       <c r="AD4" t="n">
-        <v>209793.1223896804</v>
+        <v>266384.4497450657</v>
       </c>
       <c r="AE4" t="n">
-        <v>287048.2054727731</v>
+        <v>364478.9561937045</v>
       </c>
       <c r="AF4" t="n">
         <v>1.789824382088631e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>259652.7276172227</v>
+        <v>329693.5961640044</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.2087932462045</v>
+        <v>248.867440409291</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.9885505728305</v>
+        <v>340.5114112244261</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.8892924129853</v>
+        <v>308.0134800480356</v>
       </c>
       <c r="AD5" t="n">
-        <v>192208.7932462045</v>
+        <v>248867.440409291</v>
       </c>
       <c r="AE5" t="n">
-        <v>262988.5505728305</v>
+        <v>340511.4112244261</v>
       </c>
       <c r="AF5" t="n">
         <v>1.849916653172668e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>237889.2924129853</v>
+        <v>308013.4800480356</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.4250361594151</v>
+        <v>245.0836833225015</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.8114471991062</v>
+        <v>335.3343078507019</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.2062845191374</v>
+        <v>303.3304721541878</v>
       </c>
       <c r="AD6" t="n">
-        <v>188425.0361594151</v>
+        <v>245083.6833225015</v>
       </c>
       <c r="AE6" t="n">
-        <v>257811.4471991062</v>
+        <v>335334.3078507019</v>
       </c>
       <c r="AF6" t="n">
         <v>1.876012085771445e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.54583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>233206.2845191374</v>
+        <v>303330.4721541877</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>188.9222102253176</v>
+        <v>245.580857388404</v>
       </c>
       <c r="AB7" t="n">
-        <v>258.4917026898455</v>
+        <v>336.0145633414412</v>
       </c>
       <c r="AC7" t="n">
-        <v>233.8216173805853</v>
+        <v>303.9458050156357</v>
       </c>
       <c r="AD7" t="n">
-        <v>188922.2102253176</v>
+        <v>245580.8573884041</v>
       </c>
       <c r="AE7" t="n">
-        <v>258491.7026898455</v>
+        <v>336014.5633414412</v>
       </c>
       <c r="AF7" t="n">
         <v>1.875700188170663e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>233821.6173805853</v>
+        <v>303945.8050156357</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.3043598645723</v>
+        <v>533.8538393557942</v>
       </c>
       <c r="AB2" t="n">
-        <v>599.7073617903555</v>
+        <v>730.4423749757763</v>
       </c>
       <c r="AC2" t="n">
-        <v>542.4721328756519</v>
+        <v>660.7299798903996</v>
       </c>
       <c r="AD2" t="n">
-        <v>438304.3598645723</v>
+        <v>533853.8393557942</v>
       </c>
       <c r="AE2" t="n">
-        <v>599707.3617903555</v>
+        <v>730442.3749757763</v>
       </c>
       <c r="AF2" t="n">
         <v>9.876844238210072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.52916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>542472.1328756519</v>
+        <v>660729.9798903996</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.0804595234208</v>
+        <v>329.9650951672761</v>
       </c>
       <c r="AB3" t="n">
-        <v>359.9582910106887</v>
+        <v>451.4728002404832</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.6043769212623</v>
+        <v>408.3848698315855</v>
       </c>
       <c r="AD3" t="n">
-        <v>263080.4595234208</v>
+        <v>329965.0951672761</v>
       </c>
       <c r="AE3" t="n">
-        <v>359958.2910106887</v>
+        <v>451472.8002404832</v>
       </c>
       <c r="AF3" t="n">
         <v>1.401541694107989e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7625</v>
       </c>
       <c r="AH3" t="n">
-        <v>325604.3769212622</v>
+        <v>408384.8698315855</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.3418337564468</v>
+        <v>302.1923039815242</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.005079494362</v>
+        <v>413.4728420910641</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.2733666444832</v>
+        <v>374.0115743546707</v>
       </c>
       <c r="AD4" t="n">
-        <v>235341.8337564468</v>
+        <v>302192.3039815242</v>
       </c>
       <c r="AE4" t="n">
-        <v>322005.079494362</v>
+        <v>413472.8420910641</v>
       </c>
       <c r="AF4" t="n">
         <v>1.51702921109334e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.7125</v>
       </c>
       <c r="AH4" t="n">
-        <v>291273.3666444832</v>
+        <v>374011.5743546707</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.786910959894</v>
+        <v>280.0492788469254</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.8268802400244</v>
+        <v>383.1757782205819</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.73463061722</v>
+        <v>346.6060197377911</v>
       </c>
       <c r="AD5" t="n">
-        <v>222786.910959894</v>
+        <v>280049.2788469254</v>
       </c>
       <c r="AE5" t="n">
-        <v>304826.8802400244</v>
+        <v>383175.7782205819</v>
       </c>
       <c r="AF5" t="n">
         <v>1.603355551445115e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.02916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>275734.63061722</v>
+        <v>346606.0197377912</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.4132214154652</v>
+        <v>265.7429091102009</v>
       </c>
       <c r="AB6" t="n">
-        <v>285.1601640829182</v>
+        <v>363.6011719943071</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.9448782477323</v>
+        <v>328.8995864566197</v>
       </c>
       <c r="AD6" t="n">
-        <v>208413.2214154652</v>
+        <v>265742.9091102009</v>
       </c>
       <c r="AE6" t="n">
-        <v>285160.1640829182</v>
+        <v>363601.1719943071</v>
       </c>
       <c r="AF6" t="n">
         <v>1.630804087546243e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.825</v>
       </c>
       <c r="AH6" t="n">
-        <v>257944.8782477324</v>
+        <v>328899.5864566197</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.3095829864507</v>
+        <v>260.6392706811863</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.1771408277074</v>
+        <v>356.6181487390926</v>
       </c>
       <c r="AC7" t="n">
-        <v>251.6283049312619</v>
+        <v>322.5830131401482</v>
       </c>
       <c r="AD7" t="n">
-        <v>203309.5829864507</v>
+        <v>260639.2706811863</v>
       </c>
       <c r="AE7" t="n">
-        <v>278177.1408277074</v>
+        <v>356618.1487390926</v>
       </c>
       <c r="AF7" t="n">
         <v>1.657419447172125e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH7" t="n">
-        <v>251628.3049312619</v>
+        <v>322583.0131401483</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.6882264203762</v>
+        <v>255.9164288886233</v>
       </c>
       <c r="AB8" t="n">
-        <v>271.8539968941449</v>
+        <v>350.1561482412677</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.9086329801283</v>
+        <v>316.7377369004663</v>
       </c>
       <c r="AD8" t="n">
-        <v>198688.2264203762</v>
+        <v>255916.4288886233</v>
       </c>
       <c r="AE8" t="n">
-        <v>271853.9968941449</v>
+        <v>350156.1482412677</v>
       </c>
       <c r="AF8" t="n">
         <v>1.682044440773811e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>245908.6329801283</v>
+        <v>316737.7369004663</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>199.0404614592763</v>
+        <v>256.2686639275233</v>
       </c>
       <c r="AB9" t="n">
-        <v>272.3359404138808</v>
+        <v>350.6380917610037</v>
       </c>
       <c r="AC9" t="n">
-        <v>246.3445804867528</v>
+        <v>317.1736844070908</v>
       </c>
       <c r="AD9" t="n">
-        <v>199040.4614592763</v>
+        <v>256268.6639275234</v>
       </c>
       <c r="AE9" t="n">
-        <v>272335.9404138809</v>
+        <v>350638.0917610037</v>
       </c>
       <c r="AF9" t="n">
         <v>1.67801742114346e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.49166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>246344.5804867528</v>
+        <v>317173.6844070908</v>
       </c>
     </row>
   </sheetData>
